--- a/doc/Vistas.xlsx
+++ b/doc/Vistas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\inmersal_front\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\inmersal\admin_front\inmersal_admin_front\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5853FAD-16C6-4874-BDE9-F793B62F81EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_status" sheetId="8" r:id="rId1"/>
@@ -26,93 +27,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">  `id` varchar(36) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `logo` varchar(36) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `name` varchar(36) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `status` tinyint(1) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="41">
   <si>
     <t>file</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
-    <t xml:space="preserve">  `client_id` int(11) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `project_id` varchar(36) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `primary_phone` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `list_other_phones` json DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `address` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `city_id` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `state_id` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `country_id` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>Lista</t>
-  </si>
-  <si>
-    <t>input tetxt</t>
-  </si>
-  <si>
-    <t>input text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `country_id` int(11) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `identification_type` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `status` int(11) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>`person_type_id` int(11) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> `identification_type_id` int(11) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>`identification` varchar(45) DEFAULT NULL,</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -198,12 +125,42 @@
   </si>
   <si>
     <t>person_type</t>
+  </si>
+  <si>
+    <t>person_type_id</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>identification_type</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identification_type_id</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>client_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,65 +527,65 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>30</v>
@@ -640,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -657,71 +614,71 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>30</v>
@@ -729,19 +686,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -749,19 +706,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -773,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -792,65 +749,65 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -858,19 +815,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -878,19 +835,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +856,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -919,54 +876,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -974,56 +931,73 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1032,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,51 +1022,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -1100,30 +1074,30 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -1131,16 +1105,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1149,37 +1123,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1188,72 +1264,220 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1262,77 +1486,218 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Vistas.xlsx
+++ b/doc/Vistas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\inmersal\admin_front\inmersal_admin_front\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\inmersal_front\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5853FAD-16C6-4874-BDE9-F793B62F81EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General_status" sheetId="8" r:id="rId1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -730,10 +729,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,16 +1122,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1486,11 +1486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Vistas.xlsx
+++ b/doc/Vistas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General_status" sheetId="8" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,12 +1268,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1489,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Vistas.xlsx
+++ b/doc/Vistas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\inmersal_front\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\inmersal\admin_front\inmersal_admin_front\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63CC1D-C874-426C-B26E-551BD2B43F45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_status" sheetId="8" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="42">
   <si>
     <t>file</t>
   </si>
@@ -154,12 +155,15 @@
   </si>
   <si>
     <t>client_id</t>
+  </si>
+  <si>
+    <t>city_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -596,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -729,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -855,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,18 +988,35 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1005,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1122,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1264,7 +1285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1487,10 +1508,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/doc/Vistas.xlsx
+++ b/doc/Vistas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\inmersal\admin_front\inmersal_admin_front\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63CC1D-C874-426C-B26E-551BD2B43F45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50929FCB-8EBD-43B1-ABAA-B605BCD2508C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,13 +914,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
